--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2893.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2893.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.209381815578742</v>
+        <v>1.86145555973053</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.999409437179565</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.159294366836548</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.091058254241943</v>
       </c>
       <c r="E1">
-        <v>1.201446018414732</v>
+        <v>2.878909349441528</v>
       </c>
     </row>
   </sheetData>
